--- a/Программы/Программа.xlsx
+++ b/Программы/Программа.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60FD175-09F4-47FC-99F7-AA7D62DA8224}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CDB650-187A-452C-B3D5-1A086E15F1E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python starter" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Python essential" sheetId="3" r:id="rId3"/>
     <sheet name="Python elevated" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,12 +22,201 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+  <si>
+    <t>Оператор условия</t>
+  </si>
+  <si>
+    <t>Оператор цикла for</t>
+  </si>
+  <si>
+    <t>Цикл с предусловием</t>
+  </si>
+  <si>
+    <t>Отрабатываемые конструкции языка</t>
+  </si>
+  <si>
+    <t>Количество решаемых задач</t>
+  </si>
+  <si>
+    <t>Типы заданий</t>
+  </si>
+  <si>
+    <t>Балы</t>
+  </si>
+  <si>
+    <t>Значки</t>
+  </si>
+  <si>
+    <t>Тест: написать код решения задачи и проверить на тестовых примерах</t>
+  </si>
+  <si>
+    <t>Форум: представить текст программы</t>
+  </si>
+  <si>
+    <t>Тест: по коду решения задачи определить резултат выполнения программы</t>
+  </si>
+  <si>
+    <t>Тест: сопоставить код программы с текстом задачи</t>
+  </si>
+  <si>
+    <t>Python starter</t>
+  </si>
+  <si>
+    <t>Удачный старт</t>
+  </si>
+  <si>
+    <t>Первое достижение</t>
+  </si>
+  <si>
+    <t>Взятие перевала</t>
+  </si>
+  <si>
+    <t>Главная высота</t>
+  </si>
+  <si>
+    <t>Знакомство с языком Python</t>
+  </si>
+  <si>
+    <t>x = int(input())
+if x &gt; 0:
+    print(x)
+else:
+    print(-x)
+&lt;  Меньше — условие верно, если первый операнд меньше второго. 
+&gt;  Больше — условие верно, если первый операнд больше второго. 
+&lt;=  Меньше или равно. 
+&gt;=  Больше или равно. 
+==  Равенство. Условие верно, если два операнда равны. 
+!=  Неравенство. Условие верно, если два операнда неравны.
+x = int(input())
+y = int(input())
+if x &gt; 0 and y &gt; 0:
+    print("Первая четверть")
+elif x &gt; 0 and y &lt; 0:
+    print("Четвертая четверть")
+elif y &gt; 0:
+    print("Вторая четверть")
+else:
+    print("Третья четверть")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print(5 + 10)
+print(3 * 7, (17 - 2) * 8)
+print(2 ** 16)  # две звёздочки означают возведение в степень
+print(37 / 3)  # один слэш — это деление с ответом-дробью
+print(37 // 3)  # два слэша считают частное от деления нацело
+print(37 % 3)  # процент считает остаток от деления нацело
+print('Как вас зовут?')
+name = input()  # считываем строку и кладём её в переменную name
+print('Здравствуйте, ' + name + '!')
+a = int(input())
+b = int(input())
+s = a + b
+print(s)
+x = float(input())
+print(x)
+import math
+x = math.ceil(4.2)
+y = math.ceil(4.8)
+print(x)
+print(y)
+</t>
+  </si>
+  <si>
+    <t>i = 1
+for color in 'red', 'orange', 'yellow', 'green', 'cyan', 'blue', 'violet':
+    print('#', i, ' color of rainbow is ', color, sep = '')
+    i += 1
+for i in range(4):  # равносильно инструкции for i in 0, 1, 2, 3:
+    # здесь можно выполнять циклические действия
+    print(i)
+    print(i ** 2)
+# цикл закончился, поскольку закончился блок с отступом
+print('Конец цикла')
+sum = 0
+n = 5
+for i in range(1, n + 1):
+    sum += i
+print(sum)
+print(1, 2, 3)
+print(4, 5, 6)
+print(1, 2, 3, sep=', ', end='. ')
+print(4, 5, 6, sep=', ', end='. ')
+print()
+print(1, 2, 3, sep='', end=' -- ')
+print(4, 5, 6, sep=' * ', end='.')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i = 1
+while i &lt;= 10:
+    print(i ** 2)
+    i += 1
+i = 1
+while i &lt;= 10:
+    print(i)
+    i += 1
+else:
+    print('Цикл окончен, i =', i)
+a = int(input())
+while a != 0:
+    if a &lt; 0:
+        print('Встретилось отрицательное число', a)
+        break
+    a = int(input())
+else:
+    print('Ни одного отрицательного числа не встретилось')
+a = 1
+b = 2
+a, b = b, a
+print(a, b)  
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -50,13 +239,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -70,6 +300,261 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123982</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>391750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F71F239-8191-4E7C-851A-71482F17F1F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705882" y="2514600"/>
+          <a:ext cx="356742" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>398100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1843F0-6E20-4872-A8BC-D2DA1AD4C2ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7708900" y="4413250"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>493350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>410800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE738BB9-FB5B-4C46-BE92-EF05C7E22243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="6330950"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>499700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>404450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B8BF2F-F936-4A41-954A-97906DD353EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7721600" y="8235950"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>65552</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1103820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C06F55-69F9-4720-9EAB-AD6A31504E8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7647452" y="8826499"/>
+          <a:ext cx="1077448" cy="1091121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -335,13 +820,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="68.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7">
+        <f>SUM(F3:F6)</f>
+        <v>38</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="88" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="219" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7">
+        <f>SUM(F8:F11)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>20</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="157" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4">
+        <v>16</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="7">
+        <f>SUM(F13:F16)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4">
+        <v>20</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="11"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="11"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
+        <v>20</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="169" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="11"/>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4">
+        <v>16</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="7">
+        <f>SUM(F18:F21)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="8">
+        <f>F22+F17+F12+F7</f>
+        <v>266</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C18:C21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I24" r:id="rId1" display="http://www.tepi.ru/badges/overview.php?id=2" xr:uid="{214C12DF-CED1-4575-81E1-17302BE8E339}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -361,7 +1164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C46D55-0648-46EA-8827-43E2B833AB05}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
